--- a/project/web/excel/allocate_temple.xlsx
+++ b/project/web/excel/allocate_temple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86C0F1-F071-4B10-A650-9D2C8472B7B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979E2F98-BA77-4026-8230-969B282B505F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +405,7 @@
     <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/project/web/excel/allocate_temple.xlsx
+++ b/project/web/excel/allocate_temple.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979E2F98-BA77-4026-8230-969B282B505F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEE0AFC-42AD-4A02-9D56-8076028551A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,6 +57,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,6 +112,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,11 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,41 +412,46 @@
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="12.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/project/web/excel/allocate_temple.xlsx
+++ b/project/web/excel/allocate_temple.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEE0AFC-42AD-4A02-9D56-8076028551A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF7078-F005-4923-B811-C157F12323A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +118,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="7" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,11 +403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +425,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -436,22 +439,23 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/project/web/excel/allocate_temple.xlsx
+++ b/project/web/excel/allocate_temple.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF7078-F005-4923-B811-C157F12323A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B69C4-06BB-4CD0-AB02-E42C0B8F158F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,8 +420,10 @@
     <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="12.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="6" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/project/web/excel/allocate_temple.xlsx
+++ b/project/web/excel/allocate_temple.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B69C4-06BB-4CD0-AB02-E42C0B8F158F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3870382F-2F57-4FAC-8FF8-0DC9119549A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -94,19 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,13 +109,16 @@
     <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,61 +401,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N300"/>
+  <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="14.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
+    <row r="1" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
